--- a/nr-prepare-release-3.0.0-ballot/ig/ConceptMap-mos-cdl.xlsx
+++ b/nr-prepare-release-3.0.0-ballot/ig/ConceptMap-mos-cdl.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T09:11:12+00:00</t>
+    <t>2024-10-10T09:12:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
